--- a/intel_IP/IRIS/NIOS/IRIS_CPU_V02/依賴圖.xlsx
+++ b/intel_IP/IRIS/NIOS/IRIS_CPU_V02/依賴圖.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\IRIS\NIOS\IRIS_CPU_V02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC1CA9-B79B-49D6-B25C-1E935B9F0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18702A95-1929-4CB7-B450-31C79725DB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
   <si>
     <t>my_cmd</t>
   </si>
@@ -121,6 +123,415 @@
   <si>
     <t>管理auto reset 所需資訊結構體，放在common.h</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS_CPU_V01.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;stdlib.h&gt;  // malloc(), free()
+#include &lt;string.h&gt;  // memcpy()
+#include "sys/alt_irq.h"
+#include "system.h"
+#include "altera_avalon_uart_regs.h"
+#include "IRIS_V1.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS_V1.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要標頭檔，用來include其餘標頭檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "alt_types.h"
+#include "system.h"
+#include "altera_avalon_uart_regs.h"
+#include "memory_manage.h"
+#include "nios2_var_addr.h"
+#include "adda_config.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置一些常用的函數，或是無法歸類的函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_fn.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "common.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義函數指標原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_mode.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "output_fn.h"
+#include "common.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義output_mode_setting()函數，根據rx輸入訊號選擇作用之output_fn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置ISR與註冊函數，以及其他uart讀取函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "system.h"
+#include "altera_avalon_pio_regs.h"
+#include "alt_types.h"
+#include "unistd.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adda_config.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義ADC與DAC使用之函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "alt_types.h"
+#include "system.h"
+#include "altera_avalon_spi_regs.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory_manage.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義使用到之記憶體空間，定義rx cmd名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "alt_types.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeprom.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義所使用之EEPROM相關函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adxl357.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "alt_types.h"
+#include "system.h"
+#include "nios2_var_addr.h"
+#include "io.h"
+#include "memory_manage.h" 
+#include "common.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "alt_types.h"
+#include "altera_avalon_pio_regs.h"
+#include "system.h"
+#include "nios2_var_addr.h"
+#include "io.h"
+#include "common.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義ADXL357遇到的函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads122c04_se.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義ADS122C04遇到的函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "common.h"
+#include &lt;stdarg.h&gt;
+#include &lt;string.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_mode.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "output_mode.h"
+#include "acq_fog.h"
+#include "acq_rst.h"
+#include "acq_imu.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "uart.h"
+#include &lt;stdio.h&gt;
+#include &lt;string.h&gt;
+#include "alt_types.h"
+#include "altera_avalon_uart_regs.h"
+#include "sys/alt_irq.h"
+#include "system.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adda_config.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "adda_config.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory_manage.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "memory_manage.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeprom.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#include "eeprom.h" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adxl357.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "adxl357.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads122c04_se.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "ads122c04_se.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "common.h"
+#include "acq_rst.h"
+#include "output_fn.h"
+#include "output_mode.h"
+#include "uart.h"
+#include "adda_config.h"
+#include "memory_manage.h"
+#include "eeprom.h"
+#include "adxl357.h"
+#include "ads122c04_se.h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS_CPU_V01.c</t>
+  </si>
+  <si>
+    <t>│</t>
+  </si>
+  <si>
+    <t>├── IRIS_V1.h</t>
+  </si>
+  <si>
+    <t>│   ├── common.h</t>
+  </si>
+  <si>
+    <t>│   ├── acq_rst.h</t>
+  </si>
+  <si>
+    <t>│   ├── output_fn.h</t>
+  </si>
+  <si>
+    <t>│   ├── output_mode.h</t>
+  </si>
+  <si>
+    <t>│   │   ├── output_fn.h</t>
+  </si>
+  <si>
+    <t>│   │   └── common.h</t>
+  </si>
+  <si>
+    <t>│   ├── uart.h</t>
+  </si>
+  <si>
+    <t>│   ├── adda_config.h</t>
+  </si>
+  <si>
+    <t>│   ├── memory_manage.h</t>
+  </si>
+  <si>
+    <t>│   ├── eeprom.h</t>
+  </si>
+  <si>
+    <t>│   ├── adxl357.h</t>
+  </si>
+  <si>
+    <t>│   └── ads122c04_se.h</t>
+  </si>
+  <si>
+    <t>├── stdio.h</t>
+  </si>
+  <si>
+    <t>├── stdlib.h</t>
+  </si>
+  <si>
+    <t>├── string.h</t>
+  </si>
+  <si>
+    <t>├── sys/alt_irq.h</t>
+  </si>
+  <si>
+    <t>├── system.h</t>
+  </si>
+  <si>
+    <t>└── altera_avalon_uart_regs.h</t>
+  </si>
+  <si>
+    <t>其他模組檔案：</t>
+  </si>
+  <si>
+    <t>common.c</t>
+  </si>
+  <si>
+    <t>└── common.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── alt_types.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── system.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── altera_avalon_uart_regs.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── memory_manage.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── nios2_var_addr.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── adda_config.h</t>
+  </si>
+  <si>
+    <t>output_mode.c</t>
+  </si>
+  <si>
+    <t>├── output_mode.h</t>
+  </si>
+  <si>
+    <t>│   └── common.h</t>
+  </si>
+  <si>
+    <t>├── acq_fog.h</t>
+  </si>
+  <si>
+    <t>├── acq_rst.h</t>
+  </si>
+  <si>
+    <t>└── acq_imu.h</t>
+  </si>
+  <si>
+    <t>uart.c</t>
+  </si>
+  <si>
+    <t>└── uart.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── altera_avalon_pio_regs.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── unistd.h</t>
+  </si>
+  <si>
+    <t>adda_config.c</t>
+  </si>
+  <si>
+    <t>└── adda_config.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── altera_avalon_spi_regs.h</t>
+  </si>
+  <si>
+    <t>memory_manage.c</t>
+  </si>
+  <si>
+    <t>└── memory_manage.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── alt_types.h</t>
+  </si>
+  <si>
+    <t>eeprom.c</t>
+  </si>
+  <si>
+    <t>└── eeprom.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── io.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── common.h</t>
+  </si>
+  <si>
+    <t>adxl357.c</t>
+  </si>
+  <si>
+    <t>└── adxl357.h</t>
+  </si>
+  <si>
+    <t>ads122c04_se.c</t>
+  </si>
+  <si>
+    <t>└── ads122c04_se.h</t>
   </si>
 </sst>
 </file>
@@ -163,8 +574,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -496,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +1006,618 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADB8B00-0F83-4CF7-BF01-C55CAEA33908}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9605089-4C8D-42AA-A33F-E6C23AD196B6}">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>